--- a/005.SecTranslation.xlsx
+++ b/005.SecTranslation.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="134">
   <si>
     <t>原文</t>
     <rPh sb="0" eb="2">
@@ -103,23 +103,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Any key obtained from a single vehicle’s computing platform should not provide access to
-multiple vehicles.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>6.7.3 Control Vehicle Maintenance Diagnostic Access</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Diagnostic features should be limited as much as possible to a specific mode of
-vehicle operation which accomplishes the intended purpose of the associated feature.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Diagnostic operations should be designed to eliminate or minimize potentially
-dangerous ramifications if they are misused or abused outside of their intended
-purposes.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -135,17 +119,7 @@
     <t>In many cases, firmware precisely determines the actions of an ECU.</t>
   </si>
   <si>
-    <t>Extracting firmware is often the first stage of discovering a vulnerability or structuring an end-toend
-cyberattack.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Developers should employ good security coding practices and use tools that support security outcomes in their development processes.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Developers should employ good security coding practices and use tools that support
-security outcomes in their development processes.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -198,11 +172,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Any software listening on an internet protocol (IP) port offers an attack vector
-which may be exploited.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Any unnecessary network services should be removed.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -219,10 +188,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Critical safety messages are those that could directly(31) or indirectly(32) impact a safetycritical vehicle control system’s operations.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>For example, providing an ECU with dedicated inputs from critical sensors eliminates the common data bus spoofing problem.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -232,11 +197,6 @@
   </si>
   <si>
     <t>If critical safety information must be passed across a communication bus, this information should reside on communication buses segmented from any vehicle ECUs with external network interfaces.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A segmented communications bus may also mitigate
-the potential effects of interfacing insecure aftermarket devices to vehicle networks.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -265,15 +225,6 @@
   </si>
   <si>
     <t>6.7.11 Control Wireless Interfaces</t>
-  </si>
-  <si>
-    <t>In some situations, it may be necessary to exert fine-grained control over a vehicle’s connection to a cellular wireless network.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Industry should plan for and design-in features that could allow for changes in network routing rules to be quickly propagated
-and applied to one, a subset, or all vehicles.</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>6.7.7 自動車アーキテクチャ設計における境界制御および、独立技術の適用</t>
@@ -914,6 +865,1093 @@
 </t>
     <rPh sb="88" eb="90">
       <t>イシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.7.2 鍵の制御</t>
+    <rPh sb="6" eb="7">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>車載コンピューティングプラットフォームへのアクセスレベルを上昇させる非認証プロセスを提供する全ての鍵(例：暗号鍵)またはパスワードは、漏洩から保護されなければならない。</t>
+    <rPh sb="0" eb="2">
+      <t>シャサイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>アンゴウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ロウエイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Any key obtained from a single vehicle’s computing platform should not provide access to multiple vehicles.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Any key=全ての鍵
+unauthorized=非認証プロセス</t>
+    <rPh sb="8" eb="9">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単一の車載コンピューティングプラットフォームから獲得された全ての鍵は、ほかの複数の車両へのアクセスを提供してはならない。</t>
+    <rPh sb="0" eb="2">
+      <t>タンイツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シャサイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シャリョウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>multiple vehicle=ほかの複数の車両</t>
+    <rPh sb="20" eb="22">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シャリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.7.3 車両保守診断アクセスの制御</t>
+    <rPh sb="6" eb="8">
+      <t>シャリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホシュ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Diagnostic features should be limited as much as possible to a specific mode of
+vehicle operation which accomplishes the intended purpose of the associated feature.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断機能は、可能な限り、意図された目的を成し遂げるために組織された機能である車両操作の特定のモードに、制限されなければならない。</t>
+    <rPh sb="0" eb="2">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シャリョウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>as much as possible=可能な限り
+Diagnostic features=診断機能</t>
+    <rPh sb="20" eb="22">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Diagnostic operations should be designed to eliminate or minimize potentially dangerous ramifications if they are misused or abused outside of their intended
+purposes.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断操作は、診断操作が、診断操作に意図された目的から外れた誤用または悪用されたとき、潜在的で危険な影響を最小化または排除するように設計されなければならない。</t>
+    <rPh sb="0" eb="2">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ゴヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>アクヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>センザイテキ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>キケン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="52" eb="55">
+      <t>サイショウカ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ハイジョ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例えば、ある車両の個別のブレーキを無効にするかもしれないある診断操作は、低速のときのみ操作するように制限されるだろう。</t>
+    <rPh sb="0" eb="1">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シャリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>テイソク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加えて、ある車両の個別のブレーキを無効にするかもしれないこの診断操作は、すべてのブレーキを同時に無効かできてはならず、そしてまた、診断操作は、個別ブレーキを無効にする診断制御アクションの期間を制限されるだろう。</t>
+    <rPh sb="0" eb="1">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シャリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>this diagnostic operation = a diagnostic operation which may disable a vehicle's inidividual brakes.
+it = this diacnostic operation
+such = which may disable a vehicle's individual brakes.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.7.4 ファームウェアへのアクセスの制御</t>
+    <rPh sb="20" eb="22">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多くの場合、ファームウェアはECUの動作を正確に定義する。</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セイカク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Extracting firmware is often the first stage of discovering a vulnerability or structuring an end-toend
+cyberattack.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファームウェアの抽出は、しばしば、脆弱性の発見や、エンドツーエンドのサイバー攻撃の組み立ての第一段階となる。</t>
+    <rPh sb="8" eb="10">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ゼイジャクセイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハッケン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ダイイチ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ダンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発者は、よいセキュリティコーディングプラクティスを採用し、開発者の開発プロセス中のセキュリティ成果物をサポートするツールを使用しなければならない。</t>
+    <rPh sb="0" eb="3">
+      <t>カイハツシャ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サイヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>カイハツシャ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>セイカブツ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多くのプラットフォームは、外部の不揮発性メディアのフルディスク暗号化をサポートすることが可能かもしれない。</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>フキハツセイ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Many platforms may be able to support whole disk encryption of external non-volatile media. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この場合、暗号化は、非認証のリカバリやファームウェアの解析を防ぐための便利なツールであると考慮されるべきである。</t>
+    <rPh sb="2" eb="4">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>フセ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ベンリ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>コウリョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非認証のリカバリは例えば逆アセンブルによるリバースエンジニアリング等があると考えた。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファームウェアのバイナリイメージは、ファームウェアの更新プロセスから獲得されるかもしれない。</t>
+    <rPh sb="26" eb="28">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>獲得する人=脅威</t>
+    <rPh sb="0" eb="2">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組織は、ソフトウェアアップデートの間に、第三者が、暗号化されていないファームウェアを取得するすべての機会を低減しなければならない。</t>
+    <rPh sb="0" eb="2">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ダイサンシャ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>テイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファームウェアを修正する能力を制限することは、マルウェアが車載器にインストールされることをより困難にするだろう。</t>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>シャサイキ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>コンナン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.7.5 ファームウェアを修正する能力への制限</t>
+    <rPh sb="14" eb="16">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>it = malware to be installed on the vehicles.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例えば、デジタル署名技術を使うことは、マルウェアが車載器にインストールされることをより困難にし、そして、おそらく、修正されたファームウェア、非認証のファームウェアそして、潜在的に障害のあるファームウェアが車載ECUで起動することを防ぐ。</t>
+    <rPh sb="0" eb="1">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>シャサイキ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>コンナン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="85" eb="88">
+      <t>センザイテキ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ショウガイ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>シャサイ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>フセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加えて、デジタル署名技術を採用するファームウェア更新システムは、認証された自動車モータまたは車載設備の開発者に起因しない障害のあるソフトウェアアップデートのインストールを防ぐだろう。</t>
+    <rPh sb="0" eb="1">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サイヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>ジドウシャ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>シャサイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>セツビ</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>カイハツシャ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>キイン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ショウガイ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>フセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.7.6 ネットワークポート、プロトコルそして、サービスの増殖の制御</t>
+    <rPh sb="30" eb="32">
+      <t>ゾウショク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>車載ECU上のネットワークサーバーの使用は、不可欠な機能だけに制限されなければならず、ネットワークポートの上のサービスは非認証の他者による使用から保護されなければならない。</t>
+    <rPh sb="0" eb="2">
+      <t>シャサイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>フカケツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>タシャ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>such ports = network ports</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Any software listening on an internet protocol (IP) port offers an attack vector
+which may be exploited.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IPポートをリッスンするすべてのソフトウェアは、悪用されるであろう攻撃経路を提供する。</t>
+    <rPh sb="24" eb="26">
+      <t>アクヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ケイロ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exploited=悪用される
+Any software=すべてのソフトウェア</t>
+    <rPh sb="10" eb="12">
+      <t>アクヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべての不要なネットワークサービスは削除されなければならない。</t>
+    <rPh sb="4" eb="6">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.7.10 バックエンドサーバーとの通信の制御</t>
+    <rPh sb="19" eb="21">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.7.8 車載器内部の通信の制御</t>
+    <rPh sb="6" eb="9">
+      <t>シャサイキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>critical safety = ASIL?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Critical safety messages are those that could directly(31) or indirectly(32) impact a safetycritical vehicle control system’s operations.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリティカルセーフティメッセージは、セーフティクリティカルな自動車制御システムの操作に直接または間接的に影響を与えるであろうものである。</t>
+    <rPh sb="30" eb="33">
+      <t>ジドウシャ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カンセツ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可能であるならば、共通データバス上のメッセージによるセーフティシグナルの送信は避けなければならない。</t>
+    <rPh sb="0" eb="2">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例えば、重要なセンサーからの専用入力を伴うECUの提供は、共通データバスにおけるなりすまし問題を排除する。</t>
+    <rPh sb="0" eb="1">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ハイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重要なセンサーからの専用入力を伴うECU=センサー入力、アクチュエータ出力が専用バス化されているECU</t>
+    <rPh sb="15" eb="16">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もし、クリティカルセーフティ情報が通信バスを介して受け渡されなければならないとき、クリティカルセーフティ情報は、すべての外部ネットワークインターフェースを持つ車載ECUから隔離された通信バスに配置されなければならない。</t>
+    <rPh sb="14" eb="16">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>シャサイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>カクリ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A segmented communications bus may also mitigate
+the potential effects of interfacing insecure aftermarket devices to vehicle networks.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ある隔離された通信バスは、セキュアではない市場のデバイスの車載器への接続において、潜在的な影響を最小限にもするだろう。</t>
+    <rPh sb="2" eb="4">
+      <t>カクリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シジョウ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>シャサイキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>センザイテキ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>サイショウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特に隔離されていない通信バスを介するクリティカルセーフティメッセージは、メッセージのなりすましの可能性を制限するため、メッセージ認証スキームを採用しなければならない。</t>
+    <rPh sb="0" eb="1">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>サイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.7.11 ワイヤレスインターフェースの制御</t>
+    <rPh sb="21" eb="23">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In some situations, it may be necessary to exert fine-grained control over a vehicle’s connection to a cellular wireless network.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いくつかの状況で、車載器の外部の電話無線ネットワークへの接続を制御するきめ細かい制御の実行が必要だろう。</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>シャサイキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ムセン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Industry should plan for and design-in features that could allow for changes in network routing rules to be quickly propagated
+and applied to one, a subset, or all vehicles.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製造者は、ネットワークのルーティングルールの変更が素早く伝搬され、ある単体、あるサブセットもしくは、すべての自動車に適用されること、許可することができる機能を計画・設計しなければならない。</t>
+    <rPh sb="0" eb="3">
+      <t>セイゾウシャ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>スバヤ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>デンパン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>ジドウシャ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>セッケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1374,7 +2412,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1396,13 +2434,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>2</v>
@@ -1425,13 +2463,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="93.75" x14ac:dyDescent="0.4">
@@ -1439,21 +2477,21 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1465,7 +2503,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1474,10 +2512,10 @@
     </row>
     <row r="8" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1486,10 +2524,10 @@
     </row>
     <row r="9" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1498,10 +2536,10 @@
     </row>
     <row r="10" spans="2:7" ht="75" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1513,7 +2551,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1525,7 +2563,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1536,7 +2574,9 @@
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1546,27 +2586,37 @@
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="15" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1574,49 +2624,63 @@
     </row>
     <row r="17" spans="2:7" ht="75" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:7" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="G17" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="75" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" ht="122.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" ht="75" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1624,9 +2688,11 @@
     </row>
     <row r="22" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1634,19 +2700,23 @@
     </row>
     <row r="23" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" ht="75" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1654,9 +2724,11 @@
     </row>
     <row r="25" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1664,29 +2736,39 @@
     </row>
     <row r="26" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="G26" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="28" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1694,9 +2776,11 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1704,39 +2788,49 @@
     </row>
     <row r="30" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" ht="75" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" ht="112.5" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="32" spans="2:7" ht="112.5" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" ht="36" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B33" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1744,29 +2838,39 @@
     </row>
     <row r="34" spans="2:7" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="35" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G35" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -1774,10 +2878,10 @@
     </row>
     <row r="37" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B37" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1786,22 +2890,22 @@
     </row>
     <row r="38" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" ht="180" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" ht="96" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1818,10 +2922,10 @@
     </row>
     <row r="41" spans="2:7" ht="75" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1830,29 +2934,37 @@
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:7" ht="75" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="G43" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B44" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1860,19 +2972,25 @@
     </row>
     <row r="45" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B45" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="2:7" ht="75" x14ac:dyDescent="0.4">
+      <c r="G45" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B46" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1880,9 +2998,11 @@
     </row>
     <row r="47" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1890,9 +3010,11 @@
     </row>
     <row r="48" spans="2:7" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B48" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C48" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1900,10 +3022,10 @@
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1912,10 +3034,10 @@
     </row>
     <row r="50" spans="2:7" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1940,9 +3062,11 @@
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B53" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -1950,10 +3074,10 @@
     </row>
     <row r="54" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1970,10 +3094,10 @@
     </row>
     <row r="56" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B56" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -1990,9 +3114,11 @@
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B58" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C58" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -2000,19 +3126,23 @@
     </row>
     <row r="59" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B59" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C59" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="2:7" ht="75" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:7" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B60" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C60" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2053,24 +3183,24 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2079,10 +3209,10 @@
     </row>
     <row r="4" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2107,10 +3237,10 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2119,10 +3249,10 @@
     </row>
     <row r="8" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2139,10 +3269,10 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>

--- a/005.SecTranslation.xlsx
+++ b/005.SecTranslation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NHTSA" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="204">
   <si>
     <t>原文</t>
     <rPh sb="0" eb="2">
@@ -1955,12 +1955,810 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Principle 5 - systems are designed using a defence-in-depth approach</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Principle 5.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Principle 5.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Principle 5.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>These include the least access principle, one-way data controls, full disk encryption and minimising shared data storage.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Principle 5.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Remote and back-end systems, including cloud based servers, which might provide access to a system have appropriate levels of protection and monitoring in place to prevent unauthorised access.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Principle 5 - システムは多層防御のアプローチを用いて設計される</t>
+    <rPh sb="19" eb="21">
+      <t>タソウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ボウギョ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Principle ５.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The security of the system does not rely on single points of failure, security by obscuration or anything which cannot be readily changed, should it be compromised.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>obscuration=暗黒化(ブラックボックス化)
+readily=容易に
+compromised=妥協する、汚染する、傷つける</t>
+    <rPh sb="12" eb="15">
+      <t>アンコクカ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ダキョウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>オセン</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>キズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムの、セキュリティは欠陥に対する一つの視点に依存しない。ブラックボックス化または、簡単には変更できないものによるセキュリティは妥協されなければならない。</t>
+    <rPh sb="13" eb="15">
+      <t>ケッカン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イゾン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ダキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Principle 5.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>seek to=努める</t>
+    <rPh sb="8" eb="9">
+      <t>ツト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The security architecture applies defence-in-depth and segmented techniques, seeking to mitigate risks with complementary controls such as monitoring, alerting, segregation, reducing attack surfaces (such as open internet ports), trust layers / boundaries and other security protocols.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Design controls to mediate transactions across trust boundaries, must be in place throughout the system. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティアーキテクチャは、監視、警報、境界、攻撃表面の低減(空いているIPポート等)、信頼レイヤ/境界そして、セキュリティプロトコルなどの補完しあう技術によりリスクを減らすことに努めるために多層防御と境界制御技術を応用する。</t>
+    <rPh sb="15" eb="17">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケイホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キョウカイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>テイゲン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シンライ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>キョウカイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ツト</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>タソウ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ボウギョ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>キョウカイ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>オウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信頼境界を横断するトランザクションを調停するための制御設計はシステム全体にわたって設置されるなければならない。</t>
+    <rPh sb="0" eb="2">
+      <t>シンライ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウカイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オウダン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョウテイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信頼境界を横断するトランザクションを調停するための制御設計は最小アクセス原理、片方向データ制御、フルディスク暗号化、共通データストレージの最小化を含む。</t>
+    <rPh sb="30" eb="32">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ゲンリ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>カタホウコウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>アンゴウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="69" eb="72">
+      <t>サイショウカ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムへのアクセスを提供する　クラウド上のサービスを含む、リモートまたはバックエンドシステムは、非認証アクセスを防ぐため、適切な水準の保護と監視を具備する。</t>
+    <rPh sb="11" eb="13">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>フセ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>スイジュン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>グビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Principle 6 - the security of all software is managed throughout its lifetime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Principle 6.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Principle 6.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Organisations adopt secure coding practices to proportionately manage risks from known and unknown vulnerabilities in software, including existing code libraries.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Systems to manage, audit and test code are in place.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>It must be possible to ascertain the status of all software, firmware and their configuration, including the version, revision and configuration data of all software components.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Principle 6 - 全てのソフトウェアのセキュリティはソフトウェアのライフタイム全体において管理される</t>
+    <rPh sb="14" eb="15">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Principle 6.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>proportionately=リスクに比例してと解釈</t>
+    <rPh sb="20" eb="22">
+      <t>ヒレイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カイシャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組織は、ライブラリを含むソフトウェア中の既知または未知の脆弱性からのリスクを、リスクに比例して管理するために、セキュアコーディングのプラクティスを適用する。</t>
+    <rPh sb="10" eb="11">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キチ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ミチ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ゼイジャクセイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒレイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理するシステム、監査そして、テストコードが設置される。</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンサ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Principle 6.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファームウェアとそのコンフィグレーション、ヴァージョン、リビジョン、すべてのソフトウェアコンポーネントのコンフィグレーションデータ等、全てのソフトウェアの状態を報告することが可能でなければならない。</t>
+    <rPh sb="65" eb="66">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Principle 7 - the storage and transmission of data is secure and can be controlled</t>
+  </si>
+  <si>
+    <t>Principle 7.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Incoming communications are treated as unsecure until validated.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Principle 7.2</t>
+  </si>
+  <si>
+    <t>Personally identifiable data must be managed appropriately.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Principle 7.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Users are able to delete sensitive data held on systems and connected systems.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Principle 7 - ストレージおよび、データの送信はセキュアで、制御可能である</t>
+    <rPh sb="27" eb="29">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Principle 7.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data must be sufficiently secure (confidentiality and integrity) when stored and transmitted so that only the intended recipient or system functions are able to receive and / or access it.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信されるときおよび、保管されるとき、データは十分にセキュア(機密性と完全性)でなければならないため、意図された受信者またはシステムファンクションのみが、データを受信かつ/またはアクセス可能である。</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジュウブン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キミツ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>カンゼンセイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>ジュシンシャ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受信した通信は検証されるまで、セキュアではないとして取り扱われる。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Principle 7.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Personally identifiable data=個人情報</t>
+    <rPh sb="29" eb="31">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人情報は適切に管理されなければならない。</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This=manage
+sanitised=「衛生的にされた」を健全にされたと言い換えた。</t>
+    <rPh sb="23" eb="26">
+      <t>エイセイテキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケンゼン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This includes:
+- what is stored (both on and off the ITS / CAV system)
+- what is transmitted
+- how it is used
+- the control the data owner has over these processes
+Where possible, data that is sent to other systems is sanitised.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理は以下を含む。
+- 何が保存されるか(ITS/CAV システムのON/OFF両方)
+- 何が送信されるか
+- データがどのように使用されるか
+- 上記のプロセス上のデータオーナの制御
+可能な限り、ほかのシステムに送信されるデータは健全にされなければならない。</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ケンゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Principle 7.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザはシステムおよび接続されたシステムが保持する重要なデータを削除することができる。</t>
+    <rPh sb="11" eb="13">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Principle 8 - the system is designed to be resilient to attacks and respond appropriately when its defences or sensors fail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Principle 8.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The system must be able to withstand receiving corrupt, invalid or malicious data or commands via its external and internal interfaces while remaining available for primary use. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This includes sensor jamming or spoofing.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Principle 8.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムは、システムの主要な使用中の可用な状態において、システムの内部インターフェースまたは外部インターフェースを経由した、壊れた受信、不正もしくは悪意のあるデータ・コマンドに対し抵抗できなければならない。</t>
+    <rPh sb="11" eb="13">
+      <t>シュヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ケイユ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>アクイ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>テイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壊れた受信、不正もしくは悪意のあるデータ・コマンドには、センサのジャミングや改ざんを含む。</t>
+    <rPh sb="38" eb="39">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This = receiving corrupt, invalid or malicious data or commands</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Principle 8.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Principle 8 - システムは攻撃に対して耐性を持ち、システムの防御機能やセンサーが故障したとき適切に応答するよう設計される</t>
+    <rPh sb="19" eb="21">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>タイセイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ボウギョ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>コショウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>オウトウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Systems are resilient and fail-safe if safety-critical functions are compromised or cease to work.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムは耐性があり、セーフティクリティカルファンクションが働かなくなったり、汚染されたりしたとき、フェールセーフである。</t>
+    <rPh sb="5" eb="7">
+      <t>タイセイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ハタラ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>オセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The mechanism is proportionate to the risk. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The systems are able to respond appropriately if non-safety critical functions fail.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The mechanism=システムの耐性とフェールセーフを実現するメカニズム</t>
+    <rPh sb="19" eb="21">
+      <t>タイセイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムの耐性とフェールセーフを実現するメカニズムはリスクに比例する。</t>
+    <rPh sb="30" eb="32">
+      <t>ヒレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムはノンセーフティクリティカルファンクションが故障したとき、適切に応答しなければならない。</t>
+    <rPh sb="26" eb="28">
+      <t>コショウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>オウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1978,6 +2776,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -2072,7 +2878,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2092,6 +2898,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2410,9 +3219,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3157,11 +3966,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G52"/>
+  <dimension ref="B2:G69"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3196,356 +4005,502 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>54</v>
+    <row r="4" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" ht="122.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B5" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+    <row r="6" spans="2:7" ht="75" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>59</v>
+    <row r="8" spans="2:7" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+    <row r="11" spans="2:7" ht="75" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+    <row r="13" spans="2:7" ht="75" x14ac:dyDescent="0.4">
+      <c r="B13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="4"/>
-      <c r="C14" s="1"/>
+    <row r="14" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B14" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+    <row r="16" spans="2:7" ht="75" x14ac:dyDescent="0.4">
+      <c r="B16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="4"/>
-      <c r="C17" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="B18" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+    <row r="19" spans="2:7" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="B19" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+    <row r="21" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="4"/>
-      <c r="C22" s="1"/>
+    <row r="22" spans="2:7" ht="122.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="B24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+    <row r="25" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+    <row r="28" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B28" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="B29" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="4"/>
-      <c r="C30" s="1"/>
+    <row r="30" spans="2:7" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="B30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+    <row r="31" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B31" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="B32" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B34" s="4"/>
-      <c r="C34" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="150" x14ac:dyDescent="0.4">
+      <c r="B34" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="B35" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+    <row r="36" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B36" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+    <row r="37" spans="2:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B38" s="4"/>
-      <c r="C38" s="1"/>
+      <c r="B38" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+    <row r="39" spans="2:7" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="B39" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B40" s="4"/>
-      <c r="C40" s="1"/>
+    <row r="40" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B40" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="B41" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+    <row r="42" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B42" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+    <row r="43" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B43" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B44" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -3592,7 +4547,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B50" s="4"/>
+      <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -3600,7 +4555,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B51" s="1"/>
+      <c r="B51" s="4"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -3615,6 +4570,142 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B55" s="4"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B57" s="4"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B64" s="4"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B67" s="4"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
